--- a/main/file/mortgage.xlsx
+++ b/main/file/mortgage.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,67 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>№</t>
+          <t>Банк</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Тип полиса</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Дата окончания</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Клиент</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Страховая компания</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Канал продаж</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Тип полиса</t>
+          <t>Дата рождения</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Серия</t>
+          <t>Телефон</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Номер</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Банк</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Премия</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>КВ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Дата оформления</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Дата начала действия</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Дата окончания действия</t>
+          <t>Почта</t>
         </is>
       </c>
     </row>

--- a/main/file/mortgage.xlsx
+++ b/main/file/mortgage.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,37 +424,67 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Клиент</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Страховая компания</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Канал продаж</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тип полиса</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Серия</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Номер</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Банк</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Тип полиса</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Дата окончания</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Клиент</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Дата рождения</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Телефон</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Почта</t>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Премия</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>КВ</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Дата оформления</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Дата начала действия</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Дата окончания действия</t>
         </is>
       </c>
     </row>
